--- a/results/run_180207/test_run.xlsx
+++ b/results/run_180207/test_run.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="6">
   <si>
     <t>test_no</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>linear</t>
+  </si>
+  <si>
+    <t>tpot</t>
   </si>
 </sst>
 </file>
@@ -386,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -428,16 +431,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>0.9426427375979708</v>
+        <v>-0.004015782750774383</v>
       </c>
       <c r="E3">
-        <v>0.3479927109192396</v>
+        <v>-0.001482494979450746</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -445,16 +448,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4">
-        <v>0.8375505425014919</v>
+        <v>0.9426427375979708</v>
       </c>
       <c r="E4">
-        <v>0.3091961272195997</v>
+        <v>0.3479927109192396</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -462,16 +465,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>0.9656306755490333</v>
+        <v>-0.001969503879573354</v>
       </c>
       <c r="E5">
-        <v>0.3564791019207955</v>
+        <v>-0.0007270760881955649</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -479,16 +482,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6">
-        <v>0.9691231389603611</v>
+        <v>0.8375505425014917</v>
       </c>
       <c r="E6">
-        <v>0.3577684046033698</v>
+        <v>0.3091961272195997</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -496,16 +499,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>0.9124755851943869</v>
+        <v>-0.004608417843117727</v>
       </c>
       <c r="E7">
-        <v>0.3368559899464692</v>
+        <v>-0.001701276373657371</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -513,16 +516,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8">
-        <v>0.9728131825501524</v>
+        <v>0.9656306755490333</v>
       </c>
       <c r="E8">
-        <v>0.3591306473927152</v>
+        <v>0.3564791019207955</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -530,16 +533,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>0.9722544166259647</v>
+        <v>-0.001722275524774935</v>
       </c>
       <c r="E9">
-        <v>0.3589243693819995</v>
+        <v>-0.0006358075068222704</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -547,16 +550,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10">
-        <v>0.9809288136646869</v>
+        <v>0.9691231389603612</v>
       </c>
       <c r="E10">
-        <v>0.3621266716124147</v>
+        <v>0.3577684046033698</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -564,16 +567,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>0.9750558793127766</v>
+        <v>-0.001240247885405926</v>
       </c>
       <c r="E11">
-        <v>0.3599585773125745</v>
+        <v>-0.0004578587482189199</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -581,16 +584,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12">
-        <v>0.9732813474021129</v>
+        <v>0.912475585194386</v>
       </c>
       <c r="E12">
-        <v>0.3593034784659233</v>
+        <v>0.3368559899464689</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -598,16 +601,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>0.9840138730290838</v>
+        <v>-0.0008977802135480952</v>
       </c>
       <c r="E13">
-        <v>0.3632655741135881</v>
+        <v>-0.0003314309418203998</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -615,16 +618,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14">
-        <v>0.9799054475726431</v>
+        <v>0.9728131825501524</v>
       </c>
       <c r="E14">
-        <v>0.3617488784926792</v>
+        <v>0.3591306473927152</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -632,16 +635,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>0.9839311352591751</v>
+        <v>-0.001297259709434296</v>
       </c>
       <c r="E15">
-        <v>0.3632350300488035</v>
+        <v>-0.000478905639481922</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -649,16 +652,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16">
-        <v>0.9850135515273964</v>
+        <v>0.9722544166259647</v>
       </c>
       <c r="E16">
-        <v>0.3636346225524081</v>
+        <v>0.3589243693819995</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -666,16 +669,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17">
-        <v>0.8668690868162092</v>
+        <v>-0.0004565707522700234</v>
       </c>
       <c r="E17">
-        <v>0.3189967168729924</v>
+        <v>-0.0001685509127389516</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -683,16 +686,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18">
-        <v>0.9755809764220528</v>
+        <v>0.9809288136646871</v>
       </c>
       <c r="E18">
-        <v>0.359001299337329</v>
+        <v>0.3621266716124148</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -700,16 +703,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19">
-        <v>0.8527429300743233</v>
+        <v>-0.0003560313659112065</v>
       </c>
       <c r="E19">
-        <v>0.3137984721884979</v>
+        <v>-0.0001314350763592911</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -717,16 +720,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20">
-        <v>0.9775856672585488</v>
+        <v>0.9750558793127768</v>
       </c>
       <c r="E20">
-        <v>0.3597389998793293</v>
+        <v>0.3599585773125745</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -734,16 +737,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21">
-        <v>0.9884183846576865</v>
+        <v>-0.0006382985290038208</v>
       </c>
       <c r="E21">
-        <v>0.3637253010840815</v>
+        <v>-0.0002356388339126378</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -751,16 +754,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22">
-        <v>0.939630161727936</v>
+        <v>0.9732813474021129</v>
       </c>
       <c r="E22">
-        <v>0.3457718601627792</v>
+        <v>0.3593034784659233</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -768,16 +771,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23">
-        <v>0.983903775020048</v>
+        <v>-0.0004003893205670639</v>
       </c>
       <c r="E23">
-        <v>0.362063982582508</v>
+        <v>-0.0001478105750247335</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -785,16 +788,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24">
-        <v>0.9902911451476391</v>
+        <v>0.9840138730290837</v>
       </c>
       <c r="E24">
-        <v>0.3644144529489593</v>
+        <v>0.3632655741135881</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -802,16 +805,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25">
-        <v>0.9946316774073828</v>
+        <v>-0.0005305349586286243</v>
       </c>
       <c r="E25">
-        <v>0.3660117132058972</v>
+        <v>-0.0001958560662770856</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -819,16 +822,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
       <c r="D26">
-        <v>0.9865658645666843</v>
+        <v>0.9799054475726431</v>
       </c>
       <c r="E26">
-        <v>0.3630435974266799</v>
+        <v>0.3617488784926792</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -836,16 +839,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27">
-        <v>0.9935471191573513</v>
+        <v>-0.000547709927395654</v>
       </c>
       <c r="E27">
-        <v>0.3656126096661825</v>
+        <v>-0.0002021965001475272</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -853,16 +856,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28">
-        <v>0.9963220422200252</v>
+        <v>0.983931135259175</v>
       </c>
       <c r="E28">
-        <v>0.3666337457985358</v>
+        <v>0.3632350300488035</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -870,16 +873,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29">
-        <v>0.9911338232312857</v>
+        <v>-0.0005019415934166537</v>
       </c>
       <c r="E29">
-        <v>0.3647245476866219</v>
+        <v>-0.0001853003357998396</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -887,16 +890,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
       </c>
       <c r="D30">
-        <v>0.9959552294434731</v>
+        <v>0.9850135515273962</v>
       </c>
       <c r="E30">
-        <v>0.3664987633966867</v>
+        <v>0.363634622552408</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -904,16 +907,526 @@
         <v>29</v>
       </c>
       <c r="B31">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>-0.0004088192039786029</v>
+      </c>
+      <c r="E31">
+        <v>-0.0001509226108619689</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>0.8668690868162092</v>
+      </c>
+      <c r="E32">
+        <v>0.3189967168729924</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>-0.003459999421861182</v>
+      </c>
+      <c r="E33">
+        <v>-0.00127323545474425</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>0.9755809764220528</v>
+      </c>
+      <c r="E34">
+        <v>0.359001299337329</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>16</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>-0.00081458303406253</v>
+      </c>
+      <c r="E35">
+        <v>-0.0002997561193937008</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>17</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>0.8527429300743233</v>
+      </c>
+      <c r="E36">
+        <v>0.3137984721884979</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>17</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>-0.003770016253246964</v>
+      </c>
+      <c r="E37">
+        <v>-0.001387317676490842</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>18</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>0.9775856672585483</v>
+      </c>
+      <c r="E38">
+        <v>0.3597389998793292</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>18</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>-0.0004516723536451497</v>
+      </c>
+      <c r="E39">
+        <v>-0.0001662096389251538</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>19</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>0.9884183846576865</v>
+      </c>
+      <c r="E40">
+        <v>0.3637253010840815</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>19</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>-0.0003847501008169219</v>
+      </c>
+      <c r="E41">
+        <v>-0.0001415831073500635</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>20</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>0.9396301617279367</v>
+      </c>
+      <c r="E42">
+        <v>0.3457718601627795</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>20</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>-0.00056210566907459</v>
+      </c>
+      <c r="E43">
+        <v>-0.0002068476840361798</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>21</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>0.9839037750200482</v>
+      </c>
+      <c r="E44">
+        <v>0.3620639825825082</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>21</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>-0.0003167364986982133</v>
+      </c>
+      <c r="E45">
+        <v>-0.000116554973219386</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>22</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>0.9902911451476391</v>
+      </c>
+      <c r="E46">
+        <v>0.3644144529489593</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>22</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>-0.0003234189236987639</v>
+      </c>
+      <c r="E47">
+        <v>-0.0001190140199985885</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>23</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>0.9946316774073828</v>
+      </c>
+      <c r="E48">
+        <v>0.3660117132058972</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>23</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>-0.0002430589803315822</v>
+      </c>
+      <c r="E49">
+        <v>-8.944259048045934e-05</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>24</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>0.9865658645666843</v>
+      </c>
+      <c r="E50">
+        <v>0.3630435974266799</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>24</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>-0.0003411020105021574</v>
+      </c>
+      <c r="E51">
+        <v>-0.000125521169371258</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>25</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52">
+        <v>0.9935471191573513</v>
+      </c>
+      <c r="E52">
+        <v>0.3656126096661825</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>25</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53">
+        <v>-0.0003269770416423571</v>
+      </c>
+      <c r="E53">
+        <v>-0.000120323361812151</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>26</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54">
+        <v>0.9963220422200252</v>
+      </c>
+      <c r="E54">
+        <v>0.3666337457985358</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>26</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55">
+        <v>-0.0002467226699913778</v>
+      </c>
+      <c r="E55">
+        <v>-9.079078133290819e-05</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>27</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56">
+        <v>0.9911338232312857</v>
+      </c>
+      <c r="E56">
+        <v>0.3647245476866219</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>27</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57">
+        <v>-0.0003356813674392297</v>
+      </c>
+      <c r="E57">
+        <v>-0.0001235264421780608</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>28</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58">
+        <v>0.9959552294434735</v>
+      </c>
+      <c r="E58">
+        <v>0.3664987633966869</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>28</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <v>-0.0002232589695634774</v>
+      </c>
+      <c r="E59">
+        <v>-8.215644021263412e-05</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
         <v>29</v>
       </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31">
-        <v>0.9963382291584711</v>
-      </c>
-      <c r="E31">
-        <v>0.3666397023844829</v>
+      <c r="C60" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60">
+        <v>0.9963382291584713</v>
+      </c>
+      <c r="E60">
+        <v>0.366639702384483</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>29</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61">
+        <v>-0.0002657482181102197</v>
+      </c>
+      <c r="E61">
+        <v>-9.779193926888897e-05</v>
       </c>
     </row>
   </sheetData>
